--- a/Notebooks/Tables/fw_time_mat.xlsx
+++ b/Notebooks/Tables/fw_time_mat.xlsx
@@ -14,7 +14,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="3" uniqueCount="3">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="9" uniqueCount="9">
   <si>
     <t>Feature weight</t>
   </si>
@@ -23,6 +23,24 @@
   </si>
   <si>
     <t>Trip Miles</t>
+  </si>
+  <si>
+    <t>17 Hrs</t>
+  </si>
+  <si>
+    <t>16 Hrs</t>
+  </si>
+  <si>
+    <t>8 Hrs</t>
+  </si>
+  <si>
+    <t>15 Hrs</t>
+  </si>
+  <si>
+    <t>5 Hrs</t>
+  </si>
+  <si>
+    <t>4 Hrs</t>
   </si>
 </sst>
 </file>
@@ -399,7 +417,7 @@
         <v>0</v>
       </c>
       <c r="B2">
-        <v>9.834759283574563</v>
+        <v>9.834759283574565</v>
       </c>
       <c r="C2" t="s">
         <v>2</v>
@@ -410,10 +428,10 @@
         <v>1</v>
       </c>
       <c r="B3">
-        <v>4.54842189660271</v>
-      </c>
-      <c r="C3">
-        <v>17</v>
+        <v>4.548418216926588</v>
+      </c>
+      <c r="C3" t="s">
+        <v>3</v>
       </c>
     </row>
     <row r="4" spans="1:3">
@@ -421,10 +439,10 @@
         <v>2</v>
       </c>
       <c r="B4">
-        <v>3.922014402531829</v>
-      </c>
-      <c r="C4">
-        <v>16</v>
+        <v>3.922010722855706</v>
+      </c>
+      <c r="C4" t="s">
+        <v>4</v>
       </c>
     </row>
     <row r="5" spans="1:3">
@@ -432,10 +450,10 @@
         <v>3</v>
       </c>
       <c r="B5">
-        <v>3.414427943794587</v>
-      </c>
-      <c r="C5">
-        <v>8</v>
+        <v>3.414424264118466</v>
+      </c>
+      <c r="C5" t="s">
+        <v>5</v>
       </c>
     </row>
     <row r="6" spans="1:3">
@@ -443,10 +461,10 @@
         <v>4</v>
       </c>
       <c r="B6">
-        <v>3.389435051983193</v>
-      </c>
-      <c r="C6">
-        <v>15</v>
+        <v>3.38943137230707</v>
+      </c>
+      <c r="C6" t="s">
+        <v>6</v>
       </c>
     </row>
     <row r="7" spans="1:3">
@@ -454,10 +472,10 @@
         <v>48</v>
       </c>
       <c r="B7">
-        <v>-6.210813709378465</v>
-      </c>
-      <c r="C7">
-        <v>5</v>
+        <v>-6.210817389054588</v>
+      </c>
+      <c r="C7" t="s">
+        <v>7</v>
       </c>
     </row>
     <row r="8" spans="1:3">
@@ -465,10 +483,10 @@
         <v>49</v>
       </c>
       <c r="B8">
-        <v>-6.48815633599428</v>
-      </c>
-      <c r="C8">
-        <v>4</v>
+        <v>-6.488160015670399</v>
+      </c>
+      <c r="C8" t="s">
+        <v>8</v>
       </c>
     </row>
   </sheetData>
